--- a/BDA1_2.xlsx
+++ b/BDA1_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bdaproject\whitepaper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -850,7 +850,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1BFB7E86-4017-4220-A357-FD23CA0A82BE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BFB7E86-4017-4220-A357-FD23CA0A82BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -919,7 +919,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDF0314A-0554-424F-B0BF-0A5FD5407F5C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF0314A-0554-424F-B0BF-0A5FD5407F5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -980,7 +980,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF47CC66-4F1B-4F7C-B9A1-F1D508945D68}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF47CC66-4F1B-4F7C-B9A1-F1D508945D68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1030,7 +1030,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1241AB3-F6AC-4A45-B50E-05D4429F74A5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1241AB3-F6AC-4A45-B50E-05D4429F74A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1080,7 +1080,7 @@
         <xdr:cNvPr id="4" name="矢印: 下カーブ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D9F244F4-9598-4599-8DDE-37A2001E8909}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F244F4-9598-4599-8DDE-37A2001E8909}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1144,7 +1144,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55F4FB8E-9512-49CD-A4F2-E0A23F5E1CFE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F4FB8E-9512-49CD-A4F2-E0A23F5E1CFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1194,7 +1194,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3ECB8610-101B-452C-9876-8FF81BA034C7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ECB8610-101B-452C-9876-8FF81BA034C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1244,7 +1244,7 @@
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C276DEB-B458-4A90-A3D1-70015A8343D9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C276DEB-B458-4A90-A3D1-70015A8343D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1294,7 +1294,7 @@
         <xdr:cNvPr id="11" name="正方形/長方形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{340EEAB6-7573-484D-A96B-88E332600862}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340EEAB6-7573-484D-A96B-88E332600862}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1434,7 +1434,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A51580B4-8D97-4F74-872E-277092288224}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A51580B4-8D97-4F74-872E-277092288224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1502,7 +1502,7 @@
         <xdr:cNvPr id="7" name="直線コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA0A3E32-0B62-439D-B347-C3B78E0A96DE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0A3E32-0B62-439D-B347-C3B78E0A96DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1557,7 +1557,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{182E0065-4308-4C96-9213-2C9FEAFC5D2D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182E0065-4308-4C96-9213-2C9FEAFC5D2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1586,8 +1586,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="50800" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
-            <a:schemeClr val="tx1"/>
+          <a:outerShdw blurRad="76200" dist="38100" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="70000"/>
+            </a:schemeClr>
           </a:outerShdw>
         </a:effectLst>
       </xdr:spPr>
@@ -1612,7 +1614,7 @@
         <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81663D2D-B718-42E3-A694-B6A5DE7AD10F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81663D2D-B718-42E3-A694-B6A5DE7AD10F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1641,8 +1643,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="50800" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
-            <a:schemeClr val="tx1"/>
+          <a:outerShdw blurRad="76200" dist="38100" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="70000"/>
+            </a:schemeClr>
           </a:outerShdw>
         </a:effectLst>
       </xdr:spPr>
@@ -1667,7 +1671,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03F74467-2D07-4192-A7E6-567BBF2370E7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F74467-2D07-4192-A7E6-567BBF2370E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1696,8 +1700,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="50800" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
-            <a:schemeClr val="tx1"/>
+          <a:outerShdw blurRad="76200" dist="38100" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="70000"/>
+            </a:schemeClr>
           </a:outerShdw>
         </a:effectLst>
       </xdr:spPr>
@@ -1722,7 +1728,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B3033CE-045B-4980-B8F6-AA43F4E328D8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3033CE-045B-4980-B8F6-AA43F4E328D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1751,8 +1757,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="50800" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
-            <a:schemeClr val="tx1"/>
+          <a:outerShdw blurRad="76200" dist="38100" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="70000"/>
+            </a:schemeClr>
           </a:outerShdw>
         </a:effectLst>
       </xdr:spPr>
@@ -1777,7 +1785,7 @@
         <xdr:cNvPr id="12" name="図 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AD3906C-BE11-4EFD-B164-84057E0721C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD3906C-BE11-4EFD-B164-84057E0721C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1806,8 +1814,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="50800" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
-            <a:schemeClr val="tx1"/>
+          <a:outerShdw blurRad="76200" dist="38100" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="70000"/>
+            </a:schemeClr>
           </a:outerShdw>
         </a:effectLst>
       </xdr:spPr>
@@ -1832,7 +1842,7 @@
         <xdr:cNvPr id="14" name="図 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF3F35FE-DFFE-4BD4-9C55-EDE244E9CE00}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF3F35FE-DFFE-4BD4-9C55-EDE244E9CE00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,8 +1871,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="50800" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
-            <a:schemeClr val="tx1"/>
+          <a:outerShdw blurRad="76200" dist="38100" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="70000"/>
+            </a:schemeClr>
           </a:outerShdw>
         </a:effectLst>
       </xdr:spPr>
@@ -1887,7 +1899,7 @@
         <xdr:cNvPr id="16" name="図 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D2A570A-0A4B-4333-BE91-3F9D37CFA898}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2A570A-0A4B-4333-BE91-3F9D37CFA898}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,8 +1928,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="50800" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
-            <a:schemeClr val="tx1"/>
+          <a:outerShdw blurRad="76200" dist="38100" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="70000"/>
+            </a:schemeClr>
           </a:outerShdw>
         </a:effectLst>
       </xdr:spPr>
@@ -1942,7 +1956,7 @@
         <xdr:cNvPr id="18" name="図 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99DB5E31-A754-467D-BFA2-41869ACA35D1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DB5E31-A754-467D-BFA2-41869ACA35D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,8 +1985,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="50800" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
-            <a:schemeClr val="tx1"/>
+          <a:outerShdw blurRad="76200" dist="38100" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="70000"/>
+            </a:schemeClr>
           </a:outerShdw>
         </a:effectLst>
       </xdr:spPr>
@@ -1997,7 +2013,7 @@
         <xdr:cNvPr id="19" name="直線コネクタ 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B43A8CDA-7913-4897-A878-935BC9A6AA7A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43A8CDA-7913-4897-A878-935BC9A6AA7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2052,7 +2068,7 @@
         <xdr:cNvPr id="21" name="図 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{547E1E4D-AF9A-4262-A703-DC40A47E3A49}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547E1E4D-AF9A-4262-A703-DC40A47E3A49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2081,8 +2097,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="50800" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
-            <a:schemeClr val="tx1"/>
+          <a:outerShdw blurRad="76200" dist="38100" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="70000"/>
+            </a:schemeClr>
           </a:outerShdw>
         </a:effectLst>
       </xdr:spPr>
@@ -2107,7 +2125,7 @@
         <xdr:cNvPr id="23" name="図 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E217C6A-0703-4BA8-99E5-F05396AEC2B9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E217C6A-0703-4BA8-99E5-F05396AEC2B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2136,8 +2154,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="50800" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
-            <a:schemeClr val="tx1"/>
+          <a:outerShdw blurRad="76200" dist="38100" dir="2700000" sx="99000" sy="99000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="70000"/>
+            </a:schemeClr>
           </a:outerShdw>
         </a:effectLst>
       </xdr:spPr>
@@ -2872,7 +2892,7 @@
   <dimension ref="B1:P52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
